--- a/ArticleManage/main_working_folder/output_folders/Data 49 Steam activation of a/Data49_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 49 Steam activation of a/Data49_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 P-ACF-34  0&amp;1&amp;0&amp;25 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3 P-ACF-45  0&amp;1&amp;0&amp;25 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3 P-ACF-57  0&amp;1&amp;0&amp;25 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 3 ref-ACF-15  0&amp;1&amp;0&amp;25 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 3 ref-ACF-44  0&amp;1&amp;0&amp;25 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 3 ref-ACF-61  0&amp;1&amp;0&amp;25 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 3_1 ref-ACF-15  0&amp;1&amp;0&amp;25" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3_1 ref-ACF-44  0&amp;1&amp;0&amp;25" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3_1 ref-ACF-61  0&amp;1&amp;0&amp;25" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3_2 P-ACF-34  0&amp;1&amp;0&amp;25 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3_2 P-ACF-45  0&amp;1&amp;0&amp;25 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3_2 P-ACF-57  0&amp;1&amp;0&amp;25 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>P-ACF-34</t>
+    <t>ref-ACF-15</t>
   </si>
   <si>
     <t>X</t>
@@ -28,19 +28,19 @@
     <t>Y</t>
   </si>
   <si>
+    <t>ref-ACF-44</t>
+  </si>
+  <si>
+    <t>ref-ACF-61</t>
+  </si>
+  <si>
+    <t>P-ACF-34</t>
+  </si>
+  <si>
     <t>P-ACF-45</t>
   </si>
   <si>
     <t>P-ACF-57</t>
-  </si>
-  <si>
-    <t>ref-ACF-15</t>
-  </si>
-  <si>
-    <t>ref-ACF-44</t>
-  </si>
-  <si>
-    <t>ref-ACF-61</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki P-ACF-34 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki ref-ACF-15 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 P-ACF-34  0&amp;1&amp;0&amp;25 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_1 ref-ACF-15  0&amp;1&amp;0&amp;25'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 P-ACF-34  0&amp;1&amp;0&amp;25 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_1 ref-ACF-15  0&amp;1&amp;0&amp;25'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -431,7 +431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki P-ACF-45 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki ref-ACF-44 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -490,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 P-ACF-45  0&amp;1&amp;0&amp;25 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_1 ref-ACF-44  0&amp;1&amp;0&amp;25'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 P-ACF-45  0&amp;1&amp;0&amp;25 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_1 ref-ACF-44  0&amp;1&amp;0&amp;25'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -745,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki P-ACF-57 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki ref-ACF-61 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -804,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 P-ACF-57  0&amp;1&amp;0&amp;25 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_1 ref-ACF-61  0&amp;1&amp;0&amp;25'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 P-ACF-57  0&amp;1&amp;0&amp;25 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_1 ref-ACF-61  0&amp;1&amp;0&amp;25'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1059,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ref-ACF-15 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki P-ACF-34 z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1118,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 ref-ACF-15  0&amp;1&amp;0&amp;25 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 P-ACF-34  0&amp;1&amp;0&amp;25 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 ref-ACF-15  0&amp;1&amp;0&amp;25 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 P-ACF-34  0&amp;1&amp;0&amp;25 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1373,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ref-ACF-44 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki P-ACF-45 z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1432,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 ref-ACF-44  0&amp;1&amp;0&amp;25 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 P-ACF-45  0&amp;1&amp;0&amp;25 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 ref-ACF-44  0&amp;1&amp;0&amp;25 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 P-ACF-45  0&amp;1&amp;0&amp;25 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1687,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ref-ACF-61 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki P-ACF-57 z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1746,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 ref-ACF-61  0&amp;1&amp;0&amp;25 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 P-ACF-57  0&amp;1&amp;0&amp;25 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 ref-ACF-61  0&amp;1&amp;0&amp;25 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 P-ACF-57  0&amp;1&amp;0&amp;25 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -5841,6 +5841,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9888</v>
+      </c>
+      <c r="B3" s="0">
+        <v>10.5499</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9158</v>
+      </c>
+      <c r="B4" s="0">
+        <v>10.4847</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8501</v>
+      </c>
+      <c r="B5" s="0">
+        <v>10.4198</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7936</v>
+      </c>
+      <c r="B6" s="0">
+        <v>10.418</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7562</v>
+      </c>
+      <c r="B7" s="0">
+        <v>10.4011</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7324</v>
+      </c>
+      <c r="B8" s="0">
+        <v>10.3532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.6932</v>
+      </c>
+      <c r="B9" s="0">
+        <v>10.3205</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.622</v>
+      </c>
+      <c r="B10" s="0">
+        <v>10.2868</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5554</v>
+      </c>
+      <c r="B11" s="0">
+        <v>10.2218</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5044</v>
+      </c>
+      <c r="B12" s="0">
+        <v>10.1888</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4706</v>
+      </c>
+      <c r="B13" s="0">
+        <v>10.172</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4441</v>
+      </c>
+      <c r="B14" s="0">
+        <v>10.1554</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3994</v>
+      </c>
+      <c r="B15" s="0">
+        <v>10.1226</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3274</v>
+      </c>
+      <c r="B16" s="0">
+        <v>10.0889</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2562</v>
+      </c>
+      <c r="B17" s="0">
+        <v>10.0237</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.1832</v>
+      </c>
+      <c r="B18" s="0">
+        <v>9.9271</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1121</v>
+      </c>
+      <c r="B19" s="0">
+        <v>9.8148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0427</v>
+      </c>
+      <c r="B20" s="0">
+        <v>9.5453</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0028</v>
+      </c>
+      <c r="B21" s="0">
+        <v>7.7044</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0002</v>
+      </c>
+      <c r="B22" s="0">
+        <v>6.5094</v>
+      </c>
+    </row>
+    <row r="23"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1.0132</v>
+      </c>
+      <c r="B3" s="0">
+        <v>21.1482</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9129</v>
+      </c>
+      <c r="B4" s="0">
+        <v>20.1073</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8628</v>
+      </c>
+      <c r="B5" s="0">
+        <v>20.0428</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8409</v>
+      </c>
+      <c r="B6" s="0">
+        <v>20.0264</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7907</v>
+      </c>
+      <c r="B7" s="0">
+        <v>19.9776</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7542</v>
+      </c>
+      <c r="B8" s="0">
+        <v>19.9608</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.6192</v>
+      </c>
+      <c r="B9" s="0">
+        <v>19.7836</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.5654</v>
+      </c>
+      <c r="B10" s="0">
+        <v>19.7033</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5134</v>
+      </c>
+      <c r="B11" s="0">
+        <v>19.623</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.4887</v>
+      </c>
+      <c r="B12" s="0">
+        <v>19.6065</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4568</v>
+      </c>
+      <c r="B13" s="0">
+        <v>19.5741</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4121</v>
+      </c>
+      <c r="B14" s="0">
+        <v>19.5255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2561</v>
+      </c>
+      <c r="B15" s="0">
+        <v>19.1904</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.174</v>
+      </c>
+      <c r="B16" s="0">
+        <v>18.952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0865</v>
+      </c>
+      <c r="B17" s="0">
+        <v>18.4618</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0355</v>
+      </c>
+      <c r="B18" s="0">
+        <v>17.391</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0074</v>
+      </c>
+      <c r="B19" s="0">
+        <v>15.2832</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0005</v>
+      </c>
+      <c r="B20" s="0">
+        <v>11.9496</v>
+      </c>
+    </row>
+    <row r="21"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5849,7 +6209,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -5862,170 +6222,170 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1.0167</v>
+        <v>0.9963</v>
       </c>
       <c r="B3" s="0">
-        <v>14.6713</v>
+        <v>25.7231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9823</v>
+        <v>0.958</v>
       </c>
       <c r="B4" s="0">
-        <v>13.7207</v>
+        <v>25.486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9155</v>
+        <v>0.9178</v>
       </c>
       <c r="B5" s="0">
-        <v>13.5761</v>
+        <v>25.4062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8497</v>
+        <v>0.8449</v>
       </c>
       <c r="B6" s="0">
-        <v>13.5176</v>
+        <v>25.2624</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7998</v>
+        <v>0.7728</v>
       </c>
       <c r="B7" s="0">
-        <v>13.4608</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7739</v>
+        <v>0.7062</v>
       </c>
       <c r="B8" s="0">
-        <v>13.4409</v>
+        <v>25.0064</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.742</v>
+        <v>0.6433</v>
       </c>
       <c r="B9" s="0">
-        <v>13.4032</v>
+        <v>24.8629</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6782</v>
+        <v>0.5867</v>
       </c>
       <c r="B10" s="0">
-        <v>13.345</v>
+        <v>24.7197</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6173</v>
+        <v>0.5685</v>
       </c>
       <c r="B11" s="0">
-        <v>13.2698</v>
+        <v>24.6562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5674</v>
+        <v>0.5511</v>
       </c>
       <c r="B12" s="0">
-        <v>13.2302</v>
+        <v>24.6242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5455</v>
+        <v>0.5365</v>
       </c>
       <c r="B13" s="0">
-        <v>13.1935</v>
+        <v>24.5923</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5256</v>
+        <v>0.5137</v>
       </c>
       <c r="B14" s="0">
-        <v>13.1742</v>
+        <v>24.5601</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4996</v>
+        <v>0.4736</v>
       </c>
       <c r="B15" s="0">
-        <v>13.1371</v>
+        <v>24.4488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4597</v>
+        <v>0.3997</v>
       </c>
       <c r="B16" s="0">
-        <v>13.0813</v>
+        <v>24.305</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3919</v>
+        <v>0.2374</v>
       </c>
       <c r="B17" s="0">
-        <v>13.0399</v>
+        <v>23.6395</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3231</v>
+        <v>0.1535</v>
       </c>
       <c r="B18" s="0">
-        <v>12.9639</v>
+        <v>22.9293</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2523</v>
+        <v>0.0898</v>
       </c>
       <c r="B19" s="0">
-        <v>12.8533</v>
+        <v>21.6852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1795</v>
+        <v>0.0562</v>
       </c>
       <c r="B20" s="0">
-        <v>12.708</v>
+        <v>20.3476</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0978</v>
+        <v>0.0245</v>
       </c>
       <c r="B21" s="0">
-        <v>12.493</v>
+        <v>18.1454</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0332</v>
+        <v>0.0074</v>
       </c>
       <c r="B22" s="0">
-        <v>12.0731</v>
+        <v>15.2832</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0016</v>
+        <v>0.0032</v>
       </c>
       <c r="B23" s="0">
-        <v>10.0206</v>
+        <v>12.3585</v>
       </c>
     </row>
     <row r="24"/>
@@ -6035,7 +6395,203 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1.0167</v>
+      </c>
+      <c r="B3" s="0">
+        <v>14.6713</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9823</v>
+      </c>
+      <c r="B4" s="0">
+        <v>13.7207</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9155</v>
+      </c>
+      <c r="B5" s="0">
+        <v>13.5761</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8497</v>
+      </c>
+      <c r="B6" s="0">
+        <v>13.5176</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7998</v>
+      </c>
+      <c r="B7" s="0">
+        <v>13.4608</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7739</v>
+      </c>
+      <c r="B8" s="0">
+        <v>13.4409</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.742</v>
+      </c>
+      <c r="B9" s="0">
+        <v>13.4032</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6782</v>
+      </c>
+      <c r="B10" s="0">
+        <v>13.345</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6173</v>
+      </c>
+      <c r="B11" s="0">
+        <v>13.2698</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5674</v>
+      </c>
+      <c r="B12" s="0">
+        <v>13.2302</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5455</v>
+      </c>
+      <c r="B13" s="0">
+        <v>13.1935</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.5256</v>
+      </c>
+      <c r="B14" s="0">
+        <v>13.1742</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4996</v>
+      </c>
+      <c r="B15" s="0">
+        <v>13.1371</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4597</v>
+      </c>
+      <c r="B16" s="0">
+        <v>13.0813</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3919</v>
+      </c>
+      <c r="B17" s="0">
+        <v>13.0399</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3231</v>
+      </c>
+      <c r="B18" s="0">
+        <v>12.9639</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2523</v>
+      </c>
+      <c r="B19" s="0">
+        <v>12.8533</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1795</v>
+      </c>
+      <c r="B20" s="0">
+        <v>12.708</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0978</v>
+      </c>
+      <c r="B21" s="0">
+        <v>12.493</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0332</v>
+      </c>
+      <c r="B22" s="0">
+        <v>12.0731</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>-0.0016</v>
+      </c>
+      <c r="B23" s="0">
+        <v>10.0206</v>
+      </c>
+    </row>
+    <row r="24"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -6045,7 +6601,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -6215,7 +6771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -6225,7 +6781,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -6433,560 +6989,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9888</v>
-      </c>
-      <c r="B3" s="0">
-        <v>10.5499</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9158</v>
-      </c>
-      <c r="B4" s="0">
-        <v>10.4847</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.8501</v>
-      </c>
-      <c r="B5" s="0">
-        <v>10.4198</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.7936</v>
-      </c>
-      <c r="B6" s="0">
-        <v>10.418</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.7562</v>
-      </c>
-      <c r="B7" s="0">
-        <v>10.4011</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.7324</v>
-      </c>
-      <c r="B8" s="0">
-        <v>10.3532</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.6932</v>
-      </c>
-      <c r="B9" s="0">
-        <v>10.3205</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.622</v>
-      </c>
-      <c r="B10" s="0">
-        <v>10.2868</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.5554</v>
-      </c>
-      <c r="B11" s="0">
-        <v>10.2218</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.5044</v>
-      </c>
-      <c r="B12" s="0">
-        <v>10.1888</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.4706</v>
-      </c>
-      <c r="B13" s="0">
-        <v>10.172</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.4441</v>
-      </c>
-      <c r="B14" s="0">
-        <v>10.1554</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3994</v>
-      </c>
-      <c r="B15" s="0">
-        <v>10.1226</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3274</v>
-      </c>
-      <c r="B16" s="0">
-        <v>10.0889</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.2562</v>
-      </c>
-      <c r="B17" s="0">
-        <v>10.0237</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.1832</v>
-      </c>
-      <c r="B18" s="0">
-        <v>9.9271</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.1121</v>
-      </c>
-      <c r="B19" s="0">
-        <v>9.8148</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0427</v>
-      </c>
-      <c r="B20" s="0">
-        <v>9.5453</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0028</v>
-      </c>
-      <c r="B21" s="0">
-        <v>7.7044</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0002</v>
-      </c>
-      <c r="B22" s="0">
-        <v>6.5094</v>
-      </c>
-    </row>
-    <row r="23"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>1.0132</v>
-      </c>
-      <c r="B3" s="0">
-        <v>21.1482</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9129</v>
-      </c>
-      <c r="B4" s="0">
-        <v>20.1073</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.8628</v>
-      </c>
-      <c r="B5" s="0">
-        <v>20.0428</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8409</v>
-      </c>
-      <c r="B6" s="0">
-        <v>20.0264</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.7907</v>
-      </c>
-      <c r="B7" s="0">
-        <v>19.9776</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.7542</v>
-      </c>
-      <c r="B8" s="0">
-        <v>19.9608</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.6192</v>
-      </c>
-      <c r="B9" s="0">
-        <v>19.7836</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.5654</v>
-      </c>
-      <c r="B10" s="0">
-        <v>19.7033</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.5134</v>
-      </c>
-      <c r="B11" s="0">
-        <v>19.623</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.4887</v>
-      </c>
-      <c r="B12" s="0">
-        <v>19.6065</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.4568</v>
-      </c>
-      <c r="B13" s="0">
-        <v>19.5741</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.4121</v>
-      </c>
-      <c r="B14" s="0">
-        <v>19.5255</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.2561</v>
-      </c>
-      <c r="B15" s="0">
-        <v>19.1904</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.174</v>
-      </c>
-      <c r="B16" s="0">
-        <v>18.952</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.0865</v>
-      </c>
-      <c r="B17" s="0">
-        <v>18.4618</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.0355</v>
-      </c>
-      <c r="B18" s="0">
-        <v>17.391</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.0074</v>
-      </c>
-      <c r="B19" s="0">
-        <v>15.2832</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0005</v>
-      </c>
-      <c r="B20" s="0">
-        <v>11.9496</v>
-      </c>
-    </row>
-    <row r="21"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9963</v>
-      </c>
-      <c r="B3" s="0">
-        <v>25.7231</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.958</v>
-      </c>
-      <c r="B4" s="0">
-        <v>25.486</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9178</v>
-      </c>
-      <c r="B5" s="0">
-        <v>25.4062</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8449</v>
-      </c>
-      <c r="B6" s="0">
-        <v>25.2624</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.7728</v>
-      </c>
-      <c r="B7" s="0">
-        <v>25.15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.7062</v>
-      </c>
-      <c r="B8" s="0">
-        <v>25.0064</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.6433</v>
-      </c>
-      <c r="B9" s="0">
-        <v>24.8629</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.5867</v>
-      </c>
-      <c r="B10" s="0">
-        <v>24.7197</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.5685</v>
-      </c>
-      <c r="B11" s="0">
-        <v>24.6562</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.5511</v>
-      </c>
-      <c r="B12" s="0">
-        <v>24.6242</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.5365</v>
-      </c>
-      <c r="B13" s="0">
-        <v>24.5923</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.5137</v>
-      </c>
-      <c r="B14" s="0">
-        <v>24.5601</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4736</v>
-      </c>
-      <c r="B15" s="0">
-        <v>24.4488</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3997</v>
-      </c>
-      <c r="B16" s="0">
-        <v>24.305</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.2374</v>
-      </c>
-      <c r="B17" s="0">
-        <v>23.6395</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.1535</v>
-      </c>
-      <c r="B18" s="0">
-        <v>22.9293</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.0898</v>
-      </c>
-      <c r="B19" s="0">
-        <v>21.6852</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0562</v>
-      </c>
-      <c r="B20" s="0">
-        <v>20.3476</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0245</v>
-      </c>
-      <c r="B21" s="0">
-        <v>18.1454</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0074</v>
-      </c>
-      <c r="B22" s="0">
-        <v>15.2832</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0032</v>
-      </c>
-      <c r="B23" s="0">
-        <v>12.3585</v>
-      </c>
-    </row>
-    <row r="24"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>